--- a/biology/Médecine/María_León_(personnalité_politique)/María_León_(personnalité_politique).xlsx
+++ b/biology/Médecine/María_León_(personnalité_politique)/María_León_(personnalité_politique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mar%C3%ADa_Le%C3%B3n_(personnalit%C3%A9_politique)</t>
+          <t>María_León_(personnalité_politique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-María León, de son nom complet María de Lourdes León Gibory[1], est une avocate et femme politique vénézuélienne, née à Caracas le 22 mai 1937. Ministre de la Femme et de l'Égalité de genre à la création du ministère d'avril 2009 à juin 2010, elle est deux fois députée, pour la période 2011-2016, et de nouveau depuis 2020.
+María León, de son nom complet María de Lourdes León Gibory, est une avocate et femme politique vénézuélienne, née à Caracas le 22 mai 1937. Ministre de la Femme et de l'Égalité de genre à la création du ministère d'avril 2009 à juin 2010, elle est deux fois députée, pour la période 2011-2016, et de nouveau depuis 2020.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mar%C3%ADa_Le%C3%B3n_(personnalit%C3%A9_politique)</t>
+          <t>María_León_(personnalité_politique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la notice qualifiée d'« autobiographie »[note 1] que lui consacre sur Internet en 2010 son parti, le Parti socialiste unifié du Venezuela, elle est orpheline de mère à l'âge de 3 ans, et de père à celui de 17 et a deux frères[1]. Elle a elle-même deux filles et un fils[1]. Croyante, elle s'engage au Parti communiste vénézuélien[2],[1] avec l'un de ses frères pour suivre la « Cuba héroïque de Fidel [Castro] »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la notice qualifiée d'« autobiographie »[note 1] que lui consacre sur Internet en 2010 son parti, le Parti socialiste unifié du Venezuela, elle est orpheline de mère à l'âge de 3 ans, et de père à celui de 17 et a deux frères. Elle a elle-même deux filles et un fils. Croyante, elle s'engage au Parti communiste vénézuélien, avec l'un de ses frères pour suivre la « Cuba héroïque de Fidel [Castro] ».
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mar%C3%ADa_Le%C3%B3n_(personnalit%C3%A9_politique)</t>
+          <t>María_León_(personnalité_politique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Carrière politique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 13 avril 2009, elle est nommée ministre de la Femme et de l'Égalité de genre, à la création de ce ministère puis remplacée en juin de l'année suivante par Nancy Pérez[3].
-Elle est élue pour la première fois députée pour la période 2011-2016 aux Élections législatives vénézuéliennes de 2010[2].
-Elle emporte un siège de députée au scrutin national par liste aux élections législatives du 6 décembre 2020 pour l'État d'Aragua[2], représentante et membre de la direction nationale du Parti socialiste unifié du Venezuela[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 13 avril 2009, elle est nommée ministre de la Femme et de l'Égalité de genre, à la création de ce ministère puis remplacée en juin de l'année suivante par Nancy Pérez.
+Elle est élue pour la première fois députée pour la période 2011-2016 aux Élections législatives vénézuéliennes de 2010.
+Elle emporte un siège de députée au scrutin national par liste aux élections législatives du 6 décembre 2020 pour l'État d'Aragua, représentante et membre de la direction nationale du Parti socialiste unifié du Venezuela.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mar%C3%ADa_Le%C3%B3n_(personnalit%C3%A9_politique)</t>
+          <t>María_León_(personnalité_politique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Prises de position</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que dénonçant la « farce de la démocratie représentative »[1], elle est néanmoins élue deux fois députée à l'Assemblée nationale du Venezuela (2011-2016 et depuis 2020).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que dénonçant la « farce de la démocratie représentative », elle est néanmoins élue deux fois députée à l'Assemblée nationale du Venezuela (2011-2016 et depuis 2020).
 </t>
         </is>
       </c>
